--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2699.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2699.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164580720397599</v>
+        <v>0.7477669715881348</v>
       </c>
       <c r="B1">
-        <v>2.415113304928032</v>
+        <v>1.151355266571045</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.636869192123413</v>
       </c>
       <c r="D1">
-        <v>2.338723465800695</v>
+        <v>3.474196672439575</v>
       </c>
       <c r="E1">
-        <v>1.216277375297658</v>
+        <v>1.743422746658325</v>
       </c>
     </row>
   </sheetData>
